--- a/stagesepx/TapColor视频切割参数.xlsx
+++ b/stagesepx/TapColor视频切割参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\stagesepx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78C938-CCC4-4D4C-B416-56952B210CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B070831-CF6A-4E31-88A7-749414C7F464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2460" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-2460" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tapcolor" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D657F76-0005-4333-A299-202CAD68111D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1616,17 +1616,23 @@
       <c r="E15" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G15" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="2"/>
@@ -1634,11 +1640,11 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q15" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1682,5 +1688,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stagesepx/TapColor视频切割参数.xlsx
+++ b/stagesepx/TapColor视频切割参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\stagesepx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B070831-CF6A-4E31-88A7-749414C7F464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871FDC90-F811-419B-A555-5BEC03FD766A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2460" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23808" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tapcolor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,26 @@
   </si>
   <si>
     <t>[0.97, 1, 6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测视频帧数60帧初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在1分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.96, 2, 6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1086,17 +1106,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D657F76-0005-4333-A299-202CAD68111D}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -1107,10 +1127,12 @@
     <col min="12" max="12" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.88671875" style="2"/>
     <col min="15" max="15" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="10.44140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1163,7 +1185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1207,13 +1229,16 @@
         <v>0.13461732740950685</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="2">
         <v>1.2330000000000001</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>11.2924333333333</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:K16" si="0">D3-G3</f>
+        <f t="shared" ref="J3:K18" si="0">D3-G3</f>
         <v>4.1477777777780167E-2</v>
       </c>
       <c r="K3" s="2">
@@ -1235,29 +1260,32 @@
         <v>-1.4934333333333001</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M16" si="1">(H3-G3)*1000</f>
+        <f t="shared" ref="M3:M18" si="1">(H3-G3)*1000</f>
         <v>10100.91111111108</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N16" si="2">(E3-D3)*1000</f>
+        <f t="shared" ref="N3:N18" si="2">(E3-D3)*1000</f>
         <v>8565.9999999999982</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P16" si="3">M3-N3</f>
+        <f t="shared" ref="P3:P18" si="3">M3-N3</f>
         <v>1534.9111111110815</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q16" si="4">P3/M3</f>
+        <f t="shared" ref="Q3:Q18" si="4">P3/M3</f>
         <v>0.15195768918535155</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="2">
         <v>1.2330000000000001</v>
       </c>
@@ -1295,7 +1323,7 @@
         <v>0.15013377340207315</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1307,7 +1335,7 @@
       </c>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1320,17 +1348,23 @@
       <c r="E6" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G6" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="2"/>
@@ -1338,14 +1372,14 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q6" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1358,17 +1392,23 @@
       <c r="E7" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G7" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="2"/>
@@ -1376,14 +1416,14 @@
       </c>
       <c r="P7" s="2">
         <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q7" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1396,17 +1436,23 @@
       <c r="E8" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G8" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
@@ -1414,69 +1460,75 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q8" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9.7989999999999995</v>
-      </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="2">
         <v>1.2330000000000001</v>
       </c>
       <c r="E10" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G10" s="2">
+        <v>1.6566333333333301</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10.1016333333333</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="M10" si="5">(H10-G10)*1000</f>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N10" si="6">(E10-D10)*1000</f>
         <v>8565.9999999999982</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q10" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P10" si="7">M10-N10</f>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10" si="8">P10/M10</f>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>1.2330000000000001</v>
@@ -1484,17 +1536,23 @@
       <c r="E11" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G11" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="2"/>
@@ -1502,19 +1560,19 @@
       </c>
       <c r="P11" s="2">
         <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q11" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>1.2330000000000001</v>
@@ -1522,34 +1580,46 @@
       <c r="E12" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G12" s="2">
+        <v>1.6566333333333301</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10.1016333333333</v>
+      </c>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2330000000000001</v>
+        <f t="shared" ref="J12" si="9">D12-G12</f>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>9.7989999999999995</v>
+        <f t="shared" ref="K12" si="10">E12-H12</f>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="M12" si="11">(H12-G12)*1000</f>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N12" si="12">(E12-D12)*1000</f>
         <v>8565.9999999999982</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q12" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P12" si="13">M12-N12</f>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" ref="Q12" si="14">P12/M12</f>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>1.2330000000000001</v>
@@ -1557,14 +1627,49 @@
       <c r="E13" s="2">
         <v>9.7989999999999995</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="3"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>1.2330000000000001</v>
@@ -1603,12 +1708,15 @@
         <v>2.5594357865996096E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>1.2330000000000001</v>
@@ -1616,43 +1724,17 @@
       <c r="E15" s="2">
         <v>9.7989999999999995</v>
       </c>
-      <c r="G15" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>1.2330000000000001</v>
@@ -1660,29 +1742,129 @@
       <c r="E16" s="2">
         <v>9.7989999999999995</v>
       </c>
+      <c r="G16" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10.183633333333299</v>
+      </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="3"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
         <v>1.2330000000000001</v>
       </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
+      <c r="E17" s="2">
         <v>9.7989999999999995</v>
       </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="G17" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="2"/>
         <v>8565.9999999999982</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="3"/>
-        <v>-8565.9999999999982</v>
-      </c>
-      <c r="Q16" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="P17" s="2">
+        <f t="shared" si="3"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="3"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5594357865996096E-2</v>
       </c>
     </row>
   </sheetData>

--- a/stagesepx/TapColor视频切割参数.xlsx
+++ b/stagesepx/TapColor视频切割参数.xlsx
@@ -1,179 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\stagesepx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871FDC90-F811-419B-A555-5BEC03FD766A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23808" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tapcolor" sheetId="1" r:id="rId1"/>
     <sheet name="tapcolor_new" sheetId="2" r:id="rId2"/>
+    <sheet name="多视频预测" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数[threshold, offset, block]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测视频帧数60帧初始化</t>
   </si>
   <si>
     <t>实际开始点击的时间点B'(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际加载出首页的时间点D'(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>预测开始点击的时间点B(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预测加载出首页的时间点D(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B' - B
 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D' - D
 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预测耗时
 （ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际耗时
 （ms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>偏差量
 (ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>偏差率
 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 3, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 2, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 1, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 3, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 2, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 1, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 3, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 2, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.96, 1, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 3, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 2, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[0.97, 1, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测视频帧数60帧初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存在1分区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.96, 2, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频编号</t>
+  </si>
+  <si>
+    <t>TapColor_1.mp4</t>
+  </si>
+  <si>
+    <t>TapColor_2.mp4</t>
+  </si>
+  <si>
+    <t>TapColor_3.mp4</t>
+  </si>
+  <si>
+    <t>TapColor_4.mp4</t>
+  </si>
+  <si>
+    <t>TapColorLite_1.mp4</t>
+  </si>
+  <si>
+    <t>TapColorLite_2.mp4</t>
+  </si>
+  <si>
+    <t>TapColorLite_3.mp4</t>
+  </si>
+  <si>
+    <t>TapColorLite_4.mp4</t>
+  </si>
+  <si>
+    <t>TapColorLite_5.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,12 +164,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,7 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,8 +337,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,49 +522,344 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -343,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -517,42 +1117,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88333333333333" style="2"/>
+    <col min="2" max="3" width="29" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.2166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.775" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.88333333333333" style="2"/>
+    <col min="12" max="12" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.88333333333333" style="2"/>
+    <col min="15" max="15" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,25 +1154,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -587,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -596,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -605,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -619,18 +1213,18 @@
         <v>10.933</v>
       </c>
       <c r="G2" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H2" s="2">
-        <v>11.090033333333301</v>
+        <v>11.0900333333333</v>
       </c>
       <c r="J2" s="2">
         <f>D2-G2</f>
-        <v>-0.17552222222221991</v>
+        <v>-0.17552222222222</v>
       </c>
       <c r="K2" s="2">
         <f>E2-H2</f>
-        <v>-0.15703333333330072</v>
+        <v>-0.157033333333301</v>
       </c>
       <c r="M2" s="2">
         <f>(H2-G2)*1000</f>
@@ -642,14 +1236,14 @@
       </c>
       <c r="P2" s="2">
         <f>M2-N2</f>
-        <v>-18.488888888919973</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>-18.48888888892</v>
+      </c>
+      <c r="Q2" s="6">
         <f>P2/M2</f>
-        <v>-1.8678454447726177E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.00186784544477262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -663,37 +1257,37 @@
         <v>10.933</v>
       </c>
       <c r="G3" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H3" s="2">
         <v>11.2924333333333</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J16" si="0">D3-G3</f>
-        <v>-0.17552222222221991</v>
+        <f t="shared" ref="J3:J17" si="0">D3-G3</f>
+        <v>-0.17552222222222</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K16" si="1">E3-H3</f>
-        <v>-0.35943333333329974</v>
+        <f t="shared" ref="K3:K17" si="1">E3-H3</f>
+        <v>-0.3594333333333</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M16" si="2">(H3-G3)*1000</f>
-        <v>10100.91111111108</v>
+        <f t="shared" ref="M3:M17" si="2">(H3-G3)*1000</f>
+        <v>10100.9111111111</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N16" si="3">(E3-D3)*1000</f>
+        <f t="shared" ref="N3:N17" si="3">(E3-D3)*1000</f>
         <v>9917</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P16" si="4">M3-N3</f>
-        <v>183.91111111107966</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q16" si="5">P3/M3</f>
-        <v>1.820737843230558E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P3:P17" si="4">M3-N3</f>
+        <v>183.9111111111</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q17" si="5">P3/M3</f>
+        <v>0.0182073784323075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -707,22 +1301,22 @@
         <v>10.933</v>
       </c>
       <c r="G4" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H4" s="2">
         <v>11.2707555555555</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>-0.17552222222221991</v>
+        <v>-0.17552222222222</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>-0.33775555555549985</v>
+        <v>-0.3377555555555</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>10079.233333333279</v>
+        <v>10079.2333333333</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="3"/>
@@ -730,20 +1324,20 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="4"/>
-        <v>162.23333333327901</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>162.233333333301</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" si="5"/>
-        <v>1.6095800937235293E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.0160958009372374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -776,12 +1370,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q6" s="3" t="e">
+      <c r="Q6" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -814,12 +1408,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q7" s="3" t="e">
+      <c r="Q7" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -852,18 +1446,18 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q8" s="3" t="e">
+      <c r="Q8" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -896,12 +1490,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q10" s="3" t="e">
+      <c r="Q10" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -934,12 +1528,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q11" s="3" t="e">
+      <c r="Q11" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -972,18 +1566,18 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q12" s="3" t="e">
+      <c r="Q12" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1016,12 +1610,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q14" s="3" t="e">
+      <c r="Q14" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1054,12 +1648,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q15" s="3" t="e">
+      <c r="Q15" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1092,47 +1686,88 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q16" s="3" t="e">
+      <c r="Q16" s="6" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.016</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.933</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.016</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>10.933</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="3"/>
+        <v>9917</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="4"/>
+        <v>-9917</v>
+      </c>
+      <c r="Q17" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D657F76-0005-4333-A299-202CAD68111D}">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88333333333333" style="2"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="18" width="10.44140625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.775" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.2166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.775" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.4416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.75" style="2"/>
+    <col min="12" max="12" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2"/>
+    <col min="14" max="14" width="8.88333333333333" style="2"/>
+    <col min="15" max="15" width="1.55833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="2"/>
+    <col min="17" max="17" width="8.88333333333333" style="2"/>
+    <col min="18" max="18" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,25 +1775,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1167,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1176,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1185,32 +1820,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E2" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G2" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H2" s="2">
-        <v>11.090033333333301</v>
+        <v>11.0900333333333</v>
       </c>
       <c r="J2" s="2">
         <f>D2-G2</f>
-        <v>4.1477777777780167E-2</v>
+        <v>0.0414777777777802</v>
       </c>
       <c r="K2" s="2">
         <f>E2-H2</f>
-        <v>-1.2910333333333011</v>
+        <v>-1.2910333333333</v>
       </c>
       <c r="M2" s="2">
         <f>(H2-G2)*1000</f>
@@ -1218,18 +1853,18 @@
       </c>
       <c r="N2" s="2">
         <f>(E2-D2)*1000</f>
-        <v>8565.9999999999982</v>
+        <v>8566</v>
       </c>
       <c r="P2" s="2">
         <f>M2-N2</f>
-        <v>1332.5111111110818</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>1332.51111111108</v>
+      </c>
+      <c r="Q2" s="6">
         <f>P2/M2</f>
-        <v>0.13461732740950685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.134617327409507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1237,46 +1872,46 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E3" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G3" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H3" s="2">
         <v>11.2924333333333</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:K18" si="0">D3-G3</f>
-        <v>4.1477777777780167E-2</v>
+        <f>D3-G3</f>
+        <v>0.0414777777777802</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.4934333333333001</v>
+        <f>E3-H3</f>
+        <v>-1.4934333333333</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M18" si="1">(H3-G3)*1000</f>
-        <v>10100.91111111108</v>
+        <f>(H3-G3)*1000</f>
+        <v>10100.9111111111</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N18" si="2">(E3-D3)*1000</f>
-        <v>8565.9999999999982</v>
+        <f>(E3-D3)*1000</f>
+        <v>8566</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P18" si="3">M3-N3</f>
-        <v>1534.9111111110815</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q18" si="4">P3/M3</f>
-        <v>0.15195768918535155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M3-N3</f>
+        <v>1534.91111111108</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>P3/M3</f>
+        <v>0.151957689185352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1284,592 +1919,1155 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E4" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G4" s="2">
-        <v>1.1915222222222199</v>
+        <v>1.19152222222222</v>
       </c>
       <c r="H4" s="2">
         <v>11.2707555555555</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1477777777780167E-2</v>
+        <f>D4-G4</f>
+        <v>0.0414777777777802</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.4717555555555002</v>
+        <f>E4-H4</f>
+        <v>-1.4717555555555</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
-        <v>10079.233333333279</v>
+        <f>(H4-G4)*1000</f>
+        <v>10079.2333333333</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
+        <f>(E4-D4)*1000</f>
+        <v>8566</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="3"/>
-        <v>1513.2333333332808</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" si="4"/>
-        <v>0.15013377340207315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f>M4-N4</f>
+        <v>1513.23333333328</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>P4/M4</f>
+        <v>0.150133773402073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E6" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G6" s="2">
-        <v>1.3926333333333301</v>
+        <v>1.65663333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>10.183633333333299</v>
+        <v>10.1016333333333</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
+        <f>D6-G6</f>
+        <v>-0.42363333333333</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
+        <f>E6-H6</f>
+        <v>-0.302633333333301</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
+        <f t="shared" ref="M6:M11" si="0">(H6-G6)*1000</f>
+        <v>8444.99999999997</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
+        <f t="shared" ref="N6:N11" si="1">(E6-D6)*1000</f>
+        <v>8566</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P6:P11" si="2">M6-N6</f>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:Q11" si="3">P6/M6</f>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E7" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G7" s="2">
-        <v>1.3926333333333301</v>
+        <v>1.39263333333333</v>
       </c>
       <c r="H7" s="2">
-        <v>10.183633333333299</v>
+        <v>10.1836333333333</v>
       </c>
       <c r="J7" s="2">
+        <f>D7-G7</f>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K7" s="2">
+        <f>E7-H7</f>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M7" s="2">
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N7" s="2">
+        <v>8566</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P7" s="2">
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>1.2330000000000001</v>
+        <v>1.233</v>
       </c>
       <c r="E8" s="2">
-        <v>9.7989999999999995</v>
+        <v>9.799</v>
       </c>
       <c r="G8" s="2">
-        <v>1.3926333333333301</v>
+        <v>1.65663333333333</v>
       </c>
       <c r="H8" s="2">
-        <v>10.183633333333299</v>
+        <v>10.1016333333333</v>
       </c>
       <c r="J8" s="2">
+        <f>D8-G8</f>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K8" s="2">
+        <f>E8-H8</f>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M8" s="2">
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N8" s="2">
+        <v>8566</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P8" s="2">
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J9" s="2">
+        <f>D9-G9</f>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K9" s="2">
+        <f>E9-H9</f>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>8566</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J10" s="2">
+        <f>D10-G10</f>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K10" s="2">
+        <f>E10-H10</f>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>8566</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:K21" si="4">D11-G11</f>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
+        <v>8566</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:M14" si="5">(H13-G13)*1000</f>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N14" si="6">(E13-D13)*1000</f>
+        <v>8566</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:P14" si="7">M13-N13</f>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" ref="Q13:Q14" si="8">P13/M13</f>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="5"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="6"/>
+        <v>8566</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="7"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="8"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15" si="9">D15-G15</f>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" ref="K15" si="10">E15-H15</f>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:M18" si="11">(H15-G15)*1000</f>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15:N18" si="12">(E15-D15)*1000</f>
+        <v>8566</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ref="P15:P18" si="13">M15-N15</f>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" ref="Q15:Q18" si="14">P15/M15</f>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:18">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.233</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.799</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="11"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="12"/>
+        <v>8566</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="13"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="14"/>
+        <v>0.0255943578659961</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="11"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="12"/>
+        <v>8566</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="13"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="14"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J18" s="2">
+        <f>D18-G18</f>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K18" s="2">
+        <f>E18-H18</f>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="11"/>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="12"/>
+        <v>8566</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="13"/>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="14"/>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ref="J20:J25" si="15">D20-G20</f>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20:K25" si="16">E20-H20</f>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ref="M20:M25" si="17">(H20-G20)*1000</f>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20:N25" si="18">(E20-D20)*1000</f>
+        <v>8566</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" ref="P20:P25" si="19">M20-N20</f>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" ref="Q20:Q25" si="20">P20/M20</f>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="17"/>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="18"/>
+        <v>8566</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="19"/>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="20"/>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="17"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="18"/>
+        <v>8566</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="19"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="20"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="17"/>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="18"/>
+        <v>8566</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="19"/>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="20"/>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.39263333333333</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10.1836333333333</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.15963333333333</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.3846333333333</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="17"/>
+        <v>8790.99999999997</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="18"/>
+        <v>8566</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="19"/>
+        <v>224.999999999971</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="20"/>
+        <v>0.0255943578659961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.233</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9.799</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.65663333333333</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10.1016333333333</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.42363333333333</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="16"/>
+        <v>-0.302633333333301</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="17"/>
+        <v>8444.99999999997</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="18"/>
+        <v>8566</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="19"/>
+        <v>-121.000000000027</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="20"/>
+        <v>-0.0143280047365338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="0.625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="0.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.79433333333333</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.56033333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.18848888888888</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.96048888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.1462</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10.0552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.79675555555555</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.70175555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.68093333333333</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.77193333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.51347777777777</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.52747777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.10676666666666</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.34976666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.44515555555555</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9.63715555555555</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9.7989999999999995</v>
-      </c>
       <c r="G10" s="2">
-        <v>1.6566333333333301</v>
+        <v>2.51038888888888</v>
       </c>
       <c r="H10" s="2">
-        <v>10.1016333333333</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.42363333333332998</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.30263333333330067</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" ref="M10" si="5">(H10-G10)*1000</f>
-        <v>8444.9999999999709</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" ref="N10" si="6">(E10-D10)*1000</f>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10" si="7">M10-N10</f>
-        <v>-121.00000000002728</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="8">P10/M10</f>
-        <v>-1.4328004736533772E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.6566333333333301</v>
-      </c>
-      <c r="H12" s="2">
-        <v>10.1016333333333</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" ref="J12" si="9">D12-G12</f>
-        <v>-0.42363333333332998</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12" si="10">E12-H12</f>
-        <v>-0.30263333333330067</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12" si="11">(H12-G12)*1000</f>
-        <v>8444.9999999999709</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" ref="N12" si="12">(E12-D12)*1000</f>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12" si="13">M12-N12</f>
-        <v>-121.00000000002728</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" ref="Q12" si="14">P12/M12</f>
-        <v>-1.4328004736533772E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H14" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H16" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H17" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.3926333333333301</v>
-      </c>
-      <c r="H18" s="2">
-        <v>10.183633333333299</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15963333333332996</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.38463333333329963</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="1"/>
-        <v>8790.9999999999691</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
-        <v>8565.9999999999982</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="3"/>
-        <v>224.9999999999709</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5594357865996096E-2</v>
+        <v>8.10438888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/stagesepx/TapColor视频切割参数.xlsx
+++ b/stagesepx/TapColor视频切割参数.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\stagesepx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC82C2-017C-4216-9250-459F182A7F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14940" activeTab="2"/>
+    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tapcolor" sheetId="1" r:id="rId1"/>
     <sheet name="tapcolor_new" sheetId="2" r:id="rId2"/>
     <sheet name="多视频预测" sheetId="3" r:id="rId3"/>
+    <sheet name="09838" sheetId="4" r:id="rId4"/>
+    <sheet name="09828" sheetId="5" r:id="rId5"/>
+    <sheet name="09538" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="48">
   <si>
     <t>编号</t>
   </si>
@@ -109,6 +118,33 @@
   </si>
   <si>
     <t>存在1分区</t>
+  </si>
+  <si>
+    <t>[0.98, 3, 6]</t>
+  </si>
+  <si>
+    <t>[0.98, 2, 6]</t>
+  </si>
+  <si>
+    <t>[0.98, 1, 6]</t>
+  </si>
+  <si>
+    <t>[0.98, 3, 8]</t>
+  </si>
+  <si>
+    <t>[0.98, 2, 8]</t>
+  </si>
+  <si>
+    <t>[0.98, 1, 8]</t>
+  </si>
+  <si>
+    <t>[0.95, 3, 8]</t>
+  </si>
+  <si>
+    <t>[0.95, 2, 8]</t>
+  </si>
+  <si>
+    <t>[0.95, 1, 8]</t>
   </si>
   <si>
     <t>视频编号</t>
@@ -144,14 +180,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,151 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,198 +214,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,253 +248,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -795,9 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,61 +273,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1117,36 +541,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="3" width="29" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.2166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.88333333333333" style="2"/>
-    <col min="12" max="12" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.88333333333333" style="2"/>
-    <col min="15" max="15" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88333333333333" style="2"/>
+    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="1.5546875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="1.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1213,18 +637,18 @@
         <v>10.933</v>
       </c>
       <c r="G2" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H2" s="2">
-        <v>11.0900333333333</v>
+        <v>11.090033333333301</v>
       </c>
       <c r="J2" s="2">
         <f>D2-G2</f>
-        <v>-0.17552222222222</v>
+        <v>-0.17552222222221991</v>
       </c>
       <c r="K2" s="2">
         <f>E2-H2</f>
-        <v>-0.157033333333301</v>
+        <v>-0.15703333333330072</v>
       </c>
       <c r="M2" s="2">
         <f>(H2-G2)*1000</f>
@@ -1236,14 +660,14 @@
       </c>
       <c r="P2" s="2">
         <f>M2-N2</f>
-        <v>-18.48888888892</v>
-      </c>
-      <c r="Q2" s="6">
+        <v>-18.488888888919973</v>
+      </c>
+      <c r="Q2" s="5">
         <f>P2/M2</f>
-        <v>-0.00186784544477262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>-1.8678454447726177E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1257,22 +681,22 @@
         <v>10.933</v>
       </c>
       <c r="G3" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H3" s="2">
         <v>11.2924333333333</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J17" si="0">D3-G3</f>
-        <v>-0.17552222222222</v>
+        <v>-0.17552222222221991</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K17" si="1">E3-H3</f>
-        <v>-0.3594333333333</v>
+        <v>-0.35943333333329974</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M17" si="2">(H3-G3)*1000</f>
-        <v>10100.9111111111</v>
+        <v>10100.91111111108</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N17" si="3">(E3-D3)*1000</f>
@@ -1280,14 +704,14 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P17" si="4">M3-N3</f>
-        <v>183.9111111111</v>
-      </c>
-      <c r="Q3" s="6">
+        <v>183.91111111107966</v>
+      </c>
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q17" si="5">P3/M3</f>
-        <v>0.0182073784323075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1.820737843230558E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1301,22 +725,22 @@
         <v>10.933</v>
       </c>
       <c r="G4" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H4" s="2">
         <v>11.2707555555555</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>-0.17552222222222</v>
+        <v>-0.17552222222221991</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>-0.3377555555555</v>
+        <v>-0.33775555555549985</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="2"/>
-        <v>10079.2333333333</v>
+        <v>10079.233333333279</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="3"/>
@@ -1324,20 +748,20 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="4"/>
-        <v>162.233333333301</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>162.23333333327901</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="5"/>
-        <v>0.0160958009372374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.6095800937235293E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1370,12 +794,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q6" s="6" t="e">
+      <c r="Q6" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1408,12 +832,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q7" s="6" t="e">
+      <c r="Q7" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1446,18 +870,18 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q8" s="6" t="e">
+      <c r="Q8" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1490,12 +914,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q10" s="6" t="e">
+      <c r="Q10" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1528,12 +952,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q11" s="6" t="e">
+      <c r="Q11" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1566,18 +990,18 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q12" s="6" t="e">
+      <c r="Q12" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1610,12 +1034,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q14" s="6" t="e">
+      <c r="Q14" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1648,12 +1072,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q15" s="6" t="e">
+      <c r="Q15" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1686,12 +1110,12 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q16" s="6" t="e">
+      <c r="Q16" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1724,50 +1148,49 @@
         <f t="shared" si="4"/>
         <v>-9917</v>
       </c>
-      <c r="Q17" s="6" t="e">
+      <c r="Q17" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.775" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.2166666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.775" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.4416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="2"/>
-    <col min="12" max="12" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="2"/>
-    <col min="14" max="14" width="8.88333333333333" style="2"/>
-    <col min="15" max="15" width="1.55833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="2"/>
-    <col min="17" max="17" width="8.88333333333333" style="2"/>
-    <col min="18" max="18" width="10.4416666666667" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88333333333333" style="2"/>
+    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.77734375" style="2"/>
+    <col min="12" max="12" width="1.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="2"/>
+    <col min="14" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="1.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="2"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="10.44140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,32 +1243,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G2" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H2" s="2">
-        <v>11.0900333333333</v>
+        <v>11.090033333333301</v>
       </c>
       <c r="J2" s="2">
-        <f>D2-G2</f>
-        <v>0.0414777777777802</v>
+        <f t="shared" ref="J2:K4" si="0">D2-G2</f>
+        <v>4.1477777777780167E-2</v>
       </c>
       <c r="K2" s="2">
-        <f>E2-H2</f>
-        <v>-1.2910333333333</v>
+        <f t="shared" si="0"/>
+        <v>-1.2910333333333011</v>
       </c>
       <c r="M2" s="2">
         <f>(H2-G2)*1000</f>
@@ -1853,18 +1276,18 @@
       </c>
       <c r="N2" s="2">
         <f>(E2-D2)*1000</f>
-        <v>8566</v>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P2" s="2">
         <f>M2-N2</f>
-        <v>1332.51111111108</v>
-      </c>
-      <c r="Q2" s="6">
+        <v>1332.5111111110818</v>
+      </c>
+      <c r="Q2" s="5">
         <f>P2/M2</f>
-        <v>0.134617327409507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.13461732740950685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1875,43 +1298,43 @@
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G3" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H3" s="2">
         <v>11.2924333333333</v>
       </c>
       <c r="J3" s="2">
-        <f>D3-G3</f>
-        <v>0.0414777777777802</v>
+        <f t="shared" si="0"/>
+        <v>4.1477777777780167E-2</v>
       </c>
       <c r="K3" s="2">
-        <f>E3-H3</f>
-        <v>-1.4934333333333</v>
+        <f t="shared" si="0"/>
+        <v>-1.4934333333333001</v>
       </c>
       <c r="M3" s="2">
         <f>(H3-G3)*1000</f>
-        <v>10100.9111111111</v>
+        <v>10100.91111111108</v>
       </c>
       <c r="N3" s="2">
         <f>(E3-D3)*1000</f>
-        <v>8566</v>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P3" s="2">
         <f>M3-N3</f>
-        <v>1534.91111111108</v>
-      </c>
-      <c r="Q3" s="6">
+        <v>1534.9111111110815</v>
+      </c>
+      <c r="Q3" s="5">
         <f>P3/M3</f>
-        <v>0.151957689185352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.15195768918535155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1922,49 +1345,49 @@
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G4" s="2">
-        <v>1.19152222222222</v>
+        <v>1.1915222222222199</v>
       </c>
       <c r="H4" s="2">
         <v>11.2707555555555</v>
       </c>
       <c r="J4" s="2">
-        <f>D4-G4</f>
-        <v>0.0414777777777802</v>
+        <f t="shared" si="0"/>
+        <v>4.1477777777780167E-2</v>
       </c>
       <c r="K4" s="2">
-        <f>E4-H4</f>
-        <v>-1.4717555555555</v>
+        <f t="shared" si="0"/>
+        <v>-1.4717555555555002</v>
       </c>
       <c r="M4" s="2">
         <f>(H4-G4)*1000</f>
-        <v>10079.2333333333</v>
+        <v>10079.233333333279</v>
       </c>
       <c r="N4" s="2">
         <f>(E4-D4)*1000</f>
-        <v>8566</v>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P4" s="2">
         <f>M4-N4</f>
-        <v>1513.23333333328</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>1513.2333333332808</v>
+      </c>
+      <c r="Q4" s="5">
         <f>P4/M4</f>
-        <v>0.150133773402073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.15013377340207315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1975,43 +1398,43 @@
         <v>26</v>
       </c>
       <c r="D6" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G6" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H6" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J6" s="2">
-        <f>D6-G6</f>
-        <v>-0.42363333333333</v>
+        <f t="shared" ref="J6:K10" si="1">D6-G6</f>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K6" s="2">
-        <f>E6-H6</f>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="1"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M11" si="0">(H6-G6)*1000</f>
-        <v>8444.99999999997</v>
+        <f t="shared" ref="M6:M11" si="2">(H6-G6)*1000</f>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N11" si="1">(E6-D6)*1000</f>
-        <v>8566</v>
+        <f t="shared" ref="N6:N11" si="3">(E6-D6)*1000</f>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" ref="P6:P11" si="2">M6-N6</f>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q6" s="6">
-        <f t="shared" ref="Q6:Q11" si="3">P6/M6</f>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <f t="shared" ref="P6:P11" si="4">M6-N6</f>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6:Q11" si="5">P6/M6</f>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2022,43 +1445,43 @@
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G7" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H7" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J7" s="2">
-        <f>D7-G7</f>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K7" s="2">
-        <f>E7-H7</f>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="2"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>8566</v>
+        <f t="shared" si="3"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="2"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <f t="shared" si="4"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2069,43 +1492,43 @@
         <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G8" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H8" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J8" s="2">
-        <f>D8-G8</f>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K8" s="2">
-        <f>E8-H8</f>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="1"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="2"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>8566</v>
+        <f t="shared" si="3"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="2"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <f t="shared" si="4"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2116,43 +1539,43 @@
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G9" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H9" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J9" s="2">
-        <f>D9-G9</f>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K9" s="2">
-        <f>E9-H9</f>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="2"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>8566</v>
+        <f t="shared" si="3"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="2"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="3"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <f t="shared" si="4"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2163,43 +1586,43 @@
         <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G10" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H10" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J10" s="2">
-        <f>D10-G10</f>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="1"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K10" s="2">
-        <f>E10-H10</f>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="1"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="2"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="1"/>
-        <v>8566</v>
+        <f t="shared" si="3"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="2"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <f t="shared" si="4"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2210,49 +1633,49 @@
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G11" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H11" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11:K21" si="4">D11-G11</f>
-        <v>-0.15963333333333</v>
+        <f t="shared" ref="J11:K17" si="6">D11-G11</f>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="6"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="4"/>
-        <v>-0.3846333333333</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>8790.99999999997</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="1"/>
-        <v>8566</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="2"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="3"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2263,43 +1686,43 @@
         <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G13" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H13" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="6"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:M14" si="5">(H13-G13)*1000</f>
-        <v>8444.99999999997</v>
+        <f t="shared" ref="M13:M14" si="7">(H13-G13)*1000</f>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:N14" si="6">(E13-D13)*1000</f>
-        <v>8566</v>
+        <f t="shared" ref="N13:N14" si="8">(E13-D13)*1000</f>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:P14" si="7">M13-N13</f>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" ref="Q13:Q14" si="8">P13/M13</f>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <f t="shared" ref="P13:P14" si="9">M13-N13</f>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" ref="Q13:Q14" si="10">P13/M13</f>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2310,43 +1733,43 @@
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G14" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H14" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="5"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="7"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="6"/>
-        <v>8566</v>
+        <f t="shared" si="8"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="7"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="8"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <f t="shared" si="9"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="10"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2357,44 +1780,44 @@
         <v>26</v>
       </c>
       <c r="D15" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G15" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H15" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ref="J15" si="9">D15-G15</f>
-        <v>-0.42363333333333</v>
+        <f t="shared" ref="J15" si="11">D15-G15</f>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15" si="10">E15-H15</f>
-        <v>-0.302633333333301</v>
+        <f t="shared" ref="K15" si="12">E15-H15</f>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" ref="M15:M18" si="11">(H15-G15)*1000</f>
-        <v>8444.99999999997</v>
+        <f t="shared" ref="M15:M18" si="13">(H15-G15)*1000</f>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:N18" si="12">(E15-D15)*1000</f>
-        <v>8566</v>
+        <f t="shared" ref="N15:N18" si="14">(E15-D15)*1000</f>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:P18" si="13">M15-N15</f>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" ref="Q15:Q18" si="14">P15/M15</f>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:18">
-      <c r="A16" s="2">
+        <f t="shared" ref="P15:P18" si="15">M15-N15</f>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" ref="Q15:Q18" si="16">P15/M15</f>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2404,46 +1827,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="4">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G16" s="4">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H16" s="4">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="4"/>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="11"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="13"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="12"/>
-        <v>8566</v>
+        <f t="shared" si="14"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="13"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="14"/>
-        <v>0.0255943578659961</v>
+        <f t="shared" si="15"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="16"/>
+        <v>2.5594357865996096E-2</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2454,43 +1877,43 @@
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G17" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H17" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="6"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="11"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="13"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="12"/>
-        <v>8566</v>
+        <f t="shared" si="14"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="13"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="14"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <f t="shared" si="15"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="16"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2501,49 +1924,49 @@
         <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G18" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H18" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J18" s="2">
         <f>D18-G18</f>
-        <v>-0.42363333333333</v>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K18" s="2">
         <f>E18-H18</f>
-        <v>-0.302633333333301</v>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="11"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="13"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="12"/>
-        <v>8566</v>
+        <f t="shared" si="14"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="13"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="14"/>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <f t="shared" si="15"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="16"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2554,43 +1977,43 @@
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G20" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H20" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20:J25" si="15">D20-G20</f>
-        <v>-0.15963333333333</v>
+        <f t="shared" ref="J20:J25" si="17">D20-G20</f>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ref="K20:K25" si="16">E20-H20</f>
-        <v>-0.3846333333333</v>
+        <f t="shared" ref="K20:K25" si="18">E20-H20</f>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" ref="M20:M25" si="17">(H20-G20)*1000</f>
-        <v>8790.99999999997</v>
+        <f t="shared" ref="M20:M25" si="19">(H20-G20)*1000</f>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:N25" si="18">(E20-D20)*1000</f>
-        <v>8566</v>
+        <f t="shared" ref="N20:N25" si="20">(E20-D20)*1000</f>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20:P25" si="19">M20-N20</f>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" ref="Q20:Q25" si="20">P20/M20</f>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <f t="shared" ref="P20:P25" si="21">M20-N20</f>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" ref="Q20:Q25" si="22">P20/M20</f>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2601,43 +2024,43 @@
         <v>26</v>
       </c>
       <c r="D21" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G21" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H21" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="15"/>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="17"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="18"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="17"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="19"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="18"/>
-        <v>8566</v>
+        <f t="shared" si="20"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="19"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="20"/>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <f t="shared" si="21"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="22"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2648,43 +2071,43 @@
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G22" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H22" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="15"/>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="17"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="18"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="17"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="19"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="18"/>
-        <v>8566</v>
+        <f t="shared" si="20"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="19"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="20"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <f t="shared" si="21"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="22"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2695,43 +2118,43 @@
         <v>26</v>
       </c>
       <c r="D23" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G23" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H23" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="15"/>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="17"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="18"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="17"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="19"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="18"/>
-        <v>8566</v>
+        <f t="shared" si="20"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="19"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="20"/>
-        <v>-0.0143280047365338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <f t="shared" si="21"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="22"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2742,43 +2165,43 @@
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G24" s="2">
-        <v>1.39263333333333</v>
+        <v>1.3926333333333301</v>
       </c>
       <c r="H24" s="2">
-        <v>10.1836333333333</v>
+        <v>10.183633333333299</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="15"/>
-        <v>-0.15963333333333</v>
+        <f t="shared" si="17"/>
+        <v>-0.15963333333332996</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.3846333333333</v>
+        <f t="shared" si="18"/>
+        <v>-0.38463333333329963</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="17"/>
-        <v>8790.99999999997</v>
+        <f t="shared" si="19"/>
+        <v>8790.9999999999691</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="18"/>
-        <v>8566</v>
+        <f t="shared" si="20"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="19"/>
-        <v>224.999999999971</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="20"/>
-        <v>0.0255943578659961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <f t="shared" si="21"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="22"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2789,79 +2212,558 @@
         <v>26</v>
       </c>
       <c r="D25" s="2">
-        <v>1.233</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>9.799</v>
+        <v>9.7989999999999995</v>
       </c>
       <c r="G25" s="2">
-        <v>1.65663333333333</v>
+        <v>1.6566333333333301</v>
       </c>
       <c r="H25" s="2">
         <v>10.1016333333333</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="15"/>
-        <v>-0.42363333333333</v>
+        <f t="shared" si="17"/>
+        <v>-0.42363333333332998</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.302633333333301</v>
+        <f t="shared" si="18"/>
+        <v>-0.30263333333330067</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="17"/>
-        <v>8444.99999999997</v>
+        <f t="shared" si="19"/>
+        <v>8444.9999999999709</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="18"/>
-        <v>8566</v>
+        <f t="shared" si="20"/>
+        <v>8565.9999999999982</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="19"/>
-        <v>-121.000000000027</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="20"/>
-        <v>-0.0143280047365338</v>
+        <f t="shared" si="21"/>
+        <v>-121.00000000002728</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="22"/>
+        <v>-1.4328004736533772E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:J37" si="23">D26-G26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26:K37" si="24">E26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ref="M26:M37" si="25">(H26-G26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" ref="N26:N37" si="26">(E26-D26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ref="P26:P37" si="27">M26-N26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5" t="e">
+        <f t="shared" ref="Q26:Q37" si="28">P26/M26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="23"/>
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="24"/>
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="27"/>
+        <v>-8565.9999999999982</v>
+      </c>
+      <c r="Q30" s="5" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H31" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.3926333333333301</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10.183633333333299</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="23"/>
+        <v>-0.15963333333332996</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="24"/>
+        <v>-0.38463333333329963</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="25"/>
+        <v>8790.9999999999691</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="26"/>
+        <v>8565.9999999999982</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="27"/>
+        <v>224.9999999999709</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="28"/>
+        <v>2.5594357865996096E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="0.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="0.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="0.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.6640625" style="2" customWidth="1"/>
     <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="0.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="0.6640625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" customHeight="1" spans="1:17">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2912,9 +2814,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2922,16 +2824,47 @@
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D2" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.15</v>
+      </c>
       <c r="G2" s="2">
         <v>1.79433333333333</v>
       </c>
       <c r="H2" s="2">
-        <v>8.56033333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>8.5603333333333307</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:K2" si="0">D2-G2</f>
+        <v>-7.8333333333330035E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.41033333333333033</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(H2-G2)*1000</f>
+        <v>6766.0000000000009</v>
+      </c>
+      <c r="N2" s="2">
+        <f>(E2-D2)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P2" s="2">
+        <f>M2-N2</f>
+        <v>332.00000000000091</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/M2</f>
+        <v>4.9068873780668175E-2</v>
+      </c>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -2939,16 +2872,46 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D3" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.15</v>
+      </c>
       <c r="G3" s="2">
-        <v>2.18848888888888</v>
+        <v>2.1884888888888798</v>
       </c>
       <c r="H3" s="2">
-        <v>8.96048888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>8.9604888888888894</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J10" si="1">D3-G3</f>
+        <v>-0.47248888888887985</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K10" si="2">E3-H3</f>
+        <v>-0.81048888888888904</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M10" si="3">(H3-G3)*1000</f>
+        <v>6772.0000000000091</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N10" si="4">(E3-D3)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P10" si="5">M3-N3</f>
+        <v>338.00000000000909</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q10" si="6">P3/M3</f>
+        <v>4.9911399881867782E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2956,16 +2919,46 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D4" s="2">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.8330000000000002</v>
+      </c>
       <c r="G4" s="2">
-        <v>4.1462</v>
+        <v>4.1462000000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>10.0552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>10.055199999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.7132000000000005</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22219999999999906</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>5908.9999999999991</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="5"/>
+        <v>-491.00000000000091</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.309358605517024E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -2973,16 +2966,46 @@
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D5" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.4830000000000005</v>
+      </c>
       <c r="G5" s="2">
-        <v>3.79675555555555</v>
+        <v>3.7967555555555501</v>
       </c>
       <c r="H5" s="2">
-        <v>9.70175555555555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>9.7017555555555504</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.69675555555555002</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21875555555554982</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>5905</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>6383.0000000000009</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="5"/>
+        <v>-478.00000000000091</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.0948348856901081E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -2991,15 +3014,16 @@
         <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>2.68093333333333</v>
+        <v>2.6809333333333298</v>
       </c>
       <c r="H6" s="2">
-        <v>7.77193333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>7.7719333333333296</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -3008,15 +3032,16 @@
         <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>3.51347777777777</v>
+        <v>3.5134777777777702</v>
       </c>
       <c r="H7" s="2">
-        <v>8.52747777777777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>8.5274777777777704</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -3028,12 +3053,13 @@
         <v>3.10676666666666</v>
       </c>
       <c r="H8" s="2">
-        <v>8.34976666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8.3497666666666603</v>
+      </c>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -3042,16 +3068,16 @@
         <v>27</v>
       </c>
       <c r="G9" s="2">
-        <v>4.44515555555555</v>
+        <v>4.4451555555555498</v>
       </c>
       <c r="H9" s="2">
-        <v>9.63715555555555</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>9.6371555555555499</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -3060,14 +3086,843 @@
         <v>27</v>
       </c>
       <c r="G10" s="2">
-        <v>2.51038888888888</v>
+        <v>2.5103888888888801</v>
       </c>
       <c r="H10" s="2">
-        <v>8.10438888888889</v>
-      </c>
+        <v>8.1043888888888898</v>
+      </c>
+      <c r="Q10" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="0.6640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="0.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5133333333333301</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.3653333333333304</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:K2" si="0">D2-G2</f>
+        <v>-0.79733333333333012</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21533333333333005</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(H2-G2)*1000</f>
+        <v>5852</v>
+      </c>
+      <c r="N2" s="2">
+        <f>(E2-D2)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P2" s="2">
+        <f>M2-N2</f>
+        <v>-582</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/M2</f>
+        <v>-9.9453178400546821E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.00548888888888</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.9274888888888899</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J5" si="1">D3-G3</f>
+        <v>-1.28948888888888</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K5" si="2">E3-H3</f>
+        <v>-0.77748888888888956</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M5" si="3">(H3-G3)*1000</f>
+        <v>5922.0000000000091</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N5" si="4">(E3-D3)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P5" si="5">M3-N3</f>
+        <v>-511.99999999999091</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q5" si="6">P3/M3</f>
+        <v>-8.6457277946637975E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.8330000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.1462000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10.055199999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.7132000000000005</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22219999999999906</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>5908.9999999999991</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="5"/>
+        <v>-491.00000000000091</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.309358605517024E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.4830000000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.7967555555555501</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.7017555555555504</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.69675555555555002</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21875555555554982</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>5905</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>6383.0000000000009</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="5"/>
+        <v>-478.00000000000091</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.0948348856901081E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="0.6640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="0.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5133333333333301</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.3653333333333304</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:K2" si="0">D2-G2</f>
+        <v>-0.79733333333333012</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21533333333333005</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(H2-G2)*1000</f>
+        <v>5852</v>
+      </c>
+      <c r="N2" s="2">
+        <f>(E2-D2)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P2" s="2">
+        <f>M2-N2</f>
+        <v>-582</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/M2</f>
+        <v>-9.9453178400546821E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.00548888888888</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.9274888888888899</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J5" si="1">D3-G3</f>
+        <v>-1.28948888888888</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K5" si="2">E3-H3</f>
+        <v>-0.77748888888888956</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M5" si="3">(H3-G3)*1000</f>
+        <v>5922.0000000000091</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N5" si="4">(E3-D3)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P5" si="5">M3-N3</f>
+        <v>-511.99999999999091</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q5" si="6">P3/M3</f>
+        <v>-8.6457277946637975E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.8330000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.1462000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10.055199999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.7132000000000005</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22219999999999906</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>5908.9999999999991</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="5"/>
+        <v>-491.00000000000091</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.309358605517024E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.4830000000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.7967555555555501</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.7017555555555504</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.69675555555555002</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21875555555554982</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>5905</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>6383.0000000000009</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="5"/>
+        <v>-478.00000000000091</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.0948348856901081E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="0.6640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="0.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5133333333333301</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.3653333333333304</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:K2" si="0">D2-G2</f>
+        <v>-0.79733333333333012</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21533333333333005</v>
+      </c>
+      <c r="M2" s="2">
+        <f>(H2-G2)*1000</f>
+        <v>5852</v>
+      </c>
+      <c r="N2" s="2">
+        <f>(E2-D2)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P2" s="2">
+        <f>M2-N2</f>
+        <v>-582</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/M2</f>
+        <v>-9.9453178400546821E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.716</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.00548888888888</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.9274888888888899</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J5" si="1">D3-G3</f>
+        <v>-1.28948888888888</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K5" si="2">E3-H3</f>
+        <v>-0.77748888888888956</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M5" si="3">(H3-G3)*1000</f>
+        <v>5922.0000000000091</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N5" si="4">(E3-D3)*1000</f>
+        <v>6434</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P5" si="5">M3-N3</f>
+        <v>-511.99999999999091</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q5" si="6">P3/M3</f>
+        <v>-8.6457277946637975E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.8330000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.1462000000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10.055199999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.7132000000000005</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22219999999999906</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>5908.9999999999991</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="5"/>
+        <v>-491.00000000000091</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.309358605517024E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.4830000000000005</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.7967555555555501</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.7017555555555504</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.69675555555555002</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.21875555555554982</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>5905</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="4"/>
+        <v>6383.0000000000009</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="5"/>
+        <v>-478.00000000000091</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="6"/>
+        <v>-8.0948348856901081E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>